--- a/Nuevos nombres.xlsx
+++ b/Nuevos nombres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository-Emision de OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\P_SCRIP\facturas_automatizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86693761-1436-4BD6-9D39-3AD942C3E672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D08B95-3FCD-4E67-BA39-496183C3007B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{ADA0FF94-6A14-4FBA-B5CF-184EF2CCDFDA}"/>
+    <workbookView xWindow="32205" yWindow="1695" windowWidth="25395" windowHeight="12855" xr2:uid="{ADA0FF94-6A14-4FBA-B5CF-184EF2CCDFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDACION" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -869,7 +858,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Nuevos nombres.xlsx
+++ b/Nuevos nombres.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\P_SCRIP\facturas_automatizacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Luis\Desktop\automaztizacion_alicorp\facturas_automatizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D08B95-3FCD-4E67-BA39-496183C3007B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C179DA6F-961E-4DC8-8E51-0CB8D61FE9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32205" yWindow="1695" windowWidth="25395" windowHeight="12855" xr2:uid="{ADA0FF94-6A14-4FBA-B5CF-184EF2CCDFDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{ADA0FF94-6A14-4FBA-B5CF-184EF2CCDFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDACION" sheetId="2" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>PACIFICO</t>
   </si>
   <si>
-    <t xml:space="preserve">Grupo Artículo </t>
-  </si>
-  <si>
     <t>SEGURO Y PENSIONES</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t xml:space="preserve">SCTR SALUD </t>
   </si>
   <si>
-    <t xml:space="preserve">SCTR PENSIÓN </t>
-  </si>
-  <si>
     <t xml:space="preserve">APORTE EMPLEADO ONCO </t>
   </si>
   <si>
@@ -338,6 +332,12 @@
   </si>
   <si>
     <t>PE11-VIDA-LEY-CESADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCTR PENSION </t>
+  </si>
+  <si>
+    <t>Grupo Artículo</t>
   </si>
 </sst>
 </file>
@@ -856,9 +856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E794A681-D940-4E23-B115-604B4BBE5D66}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,25 +891,25 @@
         <v>3</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -920,28 +920,28 @@
         <v>1000000193</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="H2" s="19">
         <v>1000395</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -952,28 +952,28 @@
         <v>1000000193</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="19">
         <v>1000395</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -984,28 +984,28 @@
         <v>1000001796</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="19">
         <v>1000399</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1016,28 +1016,28 @@
         <v>1000001796</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="19">
         <v>1000395</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -1049,28 +1049,28 @@
         <v>1000001796</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>8</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>9</v>
       </c>
       <c r="H6" s="19">
         <v>1000395</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="4"/>
     </row>
@@ -1082,28 +1082,28 @@
         <v>1000001796</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>8</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>9</v>
       </c>
       <c r="H7" s="19">
         <v>1000399</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="4"/>
     </row>
@@ -1115,28 +1115,28 @@
         <v>1000001796</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <v>1000393</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="5"/>
     </row>
@@ -1148,28 +1148,28 @@
         <v>1000001796</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2">
         <v>1000393</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -1181,28 +1181,28 @@
         <v>1000001796</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2">
         <v>1000393</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1213,28 +1213,28 @@
         <v>1000000193</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="G11" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="13">
         <v>1000613</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1245,28 +1245,28 @@
         <v>1000000193</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="G12" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="13">
         <v>1000613</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -1278,28 +1278,28 @@
         <v>1000000193</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="G13" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="13">
         <v>1000613</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13" s="3"/>
     </row>
@@ -1311,28 +1311,28 @@
         <v>1000000193</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="G14" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" s="13">
         <v>1000613</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -1344,28 +1344,28 @@
         <v>1000000193</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="G15" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" s="13">
         <v>1000613</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -1377,28 +1377,28 @@
         <v>1000000193</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="2">
         <v>1000613</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16" s="3"/>
     </row>
@@ -1410,28 +1410,28 @@
         <v>1000000193</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="2">
         <v>1000613</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1442,28 +1442,28 @@
         <v>1000000193</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" s="2">
         <v>1000613</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -1475,28 +1475,28 @@
         <v>1000000193</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="2">
         <v>1000613</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -1508,28 +1508,28 @@
         <v>1000000193</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="2">
         <v>1000613</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1541,28 +1541,28 @@
         <v>1000000193</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="2">
         <v>1000613</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1574,28 +1574,28 @@
         <v>1000000193</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="2">
         <v>1000613</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1607,28 +1607,28 @@
         <v>1000000193</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="2">
         <v>1000613</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1640,156 +1640,156 @@
         <v>1000000193</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="2">
         <v>1000613</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="8">
         <v>1000002873</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" s="8">
         <v>300080</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="8">
         <v>1000002873</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="G26" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26" s="8">
         <v>300080</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="8">
         <v>1000001990</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="E27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27" s="8">
         <v>1000613</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="8">
         <v>1000000684</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="G28" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28" s="8">
         <v>1000622</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
